--- a/仙人/config_dev/Items.xlsx
+++ b/仙人/config_dev/Items.xlsx
@@ -31,7 +31,8 @@
           </rPr>
           <t>// 道具类型
 [丹药:1]
-[功法:2]</t>
+[功法:2]
+[货币:3]</t>
         </r>
       </text>
     </comment>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>sID</t>
   </si>
@@ -75,39 +76,42 @@
     <t>使用后可以增加突破筑基的概率!</t>
   </si>
   <si>
+    <t>addReiki|500</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>zhujidan.png</t>
+  </si>
+  <si>
+    <t>i002</t>
+  </si>
+  <si>
+    <t>阴女丹</t>
+  </si>
+  <si>
+    <t>addReiki|1000</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>yinnvdan.png</t>
+  </si>
+  <si>
+    <t>i003</t>
+  </si>
+  <si>
+    <t>清风丸</t>
+  </si>
+  <si>
+    <t>使用后可以增加少量灵气!</t>
+  </si>
+  <si>
     <t>addReiki|100</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>zhujidan.png</t>
-  </si>
-  <si>
-    <t>i002</t>
-  </si>
-  <si>
-    <t>阴女丹</t>
-  </si>
-  <si>
-    <t>addReiki|1000</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>yinnvdan.png</t>
-  </si>
-  <si>
-    <t>i003</t>
-  </si>
-  <si>
-    <t>清风丸</t>
-  </si>
-  <si>
-    <t>使用后可以增加少量灵气!</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -129,7 +133,124 @@
     <t>learnAtk|a001|1</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>jichugongfa.png</t>
+  </si>
+  <si>
+    <t>i102</t>
+  </si>
+  <si>
+    <t>青元剑诀</t>
+  </si>
+  <si>
+    <t>使用后可以学习青元剑诀!</t>
+  </si>
+  <si>
+    <t>learnAtk|a002|1</t>
+  </si>
+  <si>
+    <t>qingyuanjianjue.png</t>
+  </si>
+  <si>
+    <t>i103</t>
+  </si>
+  <si>
+    <t>金翎功法</t>
+  </si>
+  <si>
+    <t>使用后可以学习金翎功法!</t>
+  </si>
+  <si>
+    <t>learnAtk|a003|2</t>
+  </si>
+  <si>
+    <t>jinlinggongfa.png</t>
+  </si>
+  <si>
+    <t>i104</t>
+  </si>
+  <si>
+    <t>无相水诀</t>
+  </si>
+  <si>
+    <t>使用后可以学习无相水诀!</t>
+  </si>
+  <si>
+    <t>learnAtk|a004|3</t>
+  </si>
+  <si>
+    <t>wuxiangshuijue.png</t>
+  </si>
+  <si>
+    <t>i105</t>
+  </si>
+  <si>
+    <t>龙幽千影诀</t>
+  </si>
+  <si>
+    <t>使用后可以学习龙幽千影诀!</t>
+  </si>
+  <si>
+    <t>learnAtk|a005|4</t>
+  </si>
+  <si>
+    <t>longyouqianyingjue.png</t>
+  </si>
+  <si>
+    <t>i106</t>
+  </si>
+  <si>
+    <t>下品灵石</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>黯淡的灵石，散发着微弱的灵气。</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>xiapinlingshi.png</t>
+  </si>
+  <si>
+    <t>i107</t>
+  </si>
+  <si>
+    <t>中品灵石</t>
+  </si>
+  <si>
+    <t>光亮的灵石，灵气充沛。</t>
+  </si>
+  <si>
+    <t>zhongpinlingshi.png</t>
+  </si>
+  <si>
+    <t>i108</t>
+  </si>
+  <si>
+    <t>高品灵石</t>
+  </si>
+  <si>
+    <t>闪亮的灵石，内里有灵气如实质般流动。</t>
+  </si>
+  <si>
+    <t>gaopinlingshi.png</t>
+  </si>
+  <si>
+    <t>i109</t>
+  </si>
+  <si>
+    <t>极品灵石</t>
+  </si>
+  <si>
+    <t>耀眼的灵石，十分光滑，散发的灵气令周围空气中的灵气紊乱。</t>
+  </si>
+  <si>
+    <t>jipinlingshi.png</t>
   </si>
 </sst>
 </file>
@@ -138,9 +259,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,6 +269,96 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,16 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,28 +387,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,60 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -280,21 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -309,67 +430,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,109 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,49 +639,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -581,11 +665,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +736,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,138 +756,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1120,19 +1244,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="16.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="38.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="57.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="18.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="28.3055555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1218,46 +1342,221 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仙人/config_dev/Items.xlsx
+++ b/仙人/config_dev/Items.xlsx
@@ -258,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -272,6 +272,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +288,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -287,60 +317,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,22 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -378,34 +401,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,67 +436,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,13 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,91 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,17 +650,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +684,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -694,48 +736,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,141 +756,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1247,7 +1244,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1470,22 +1467,22 @@
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1493,22 +1490,22 @@
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1516,22 +1513,22 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1539,22 +1536,22 @@
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>69</v>
       </c>
     </row>

--- a/仙人/config_dev/Items.xlsx
+++ b/仙人/config_dev/Items.xlsx
@@ -258,9 +258,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -274,6 +274,94 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -290,80 +378,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,40 +392,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,25 +430,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,145 +574,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,31 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +665,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,8 +704,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -722,17 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,133 +756,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/仙人/config_dev/Items.xlsx
+++ b/仙人/config_dev/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22583" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,8 @@
           <t>// 道具类型
 [丹药:1]
 [功法:2]
-[货币:3]</t>
+[材料:3]
+[装备:4]</t>
         </r>
       </text>
     </comment>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>sID</t>
   </si>
@@ -118,7 +119,7 @@
     <t>qingfengwan.png</t>
   </si>
   <si>
-    <t>i101</t>
+    <t>a001</t>
   </si>
   <si>
     <t>基础功法</t>
@@ -139,7 +140,7 @@
     <t>jichugongfa.png</t>
   </si>
   <si>
-    <t>i102</t>
+    <t>a002</t>
   </si>
   <si>
     <t>青元剑诀</t>
@@ -154,7 +155,7 @@
     <t>qingyuanjianjue.png</t>
   </si>
   <si>
-    <t>i103</t>
+    <t>a003</t>
   </si>
   <si>
     <t>金翎功法</t>
@@ -163,13 +164,13 @@
     <t>使用后可以学习金翎功法!</t>
   </si>
   <si>
-    <t>learnAtk|a003|2</t>
+    <t>learnAtk|a003|1</t>
   </si>
   <si>
     <t>jinlinggongfa.png</t>
   </si>
   <si>
-    <t>i104</t>
+    <t>a004</t>
   </si>
   <si>
     <t>无相水诀</t>
@@ -178,13 +179,13 @@
     <t>使用后可以学习无相水诀!</t>
   </si>
   <si>
-    <t>learnAtk|a004|3</t>
+    <t>learnAtk|a004|1</t>
   </si>
   <si>
     <t>wuxiangshuijue.png</t>
   </si>
   <si>
-    <t>i105</t>
+    <t>a005</t>
   </si>
   <si>
     <t>龙幽千影诀</t>
@@ -193,19 +194,19 @@
     <t>使用后可以学习龙幽千影诀!</t>
   </si>
   <si>
-    <t>learnAtk|a005|4</t>
+    <t>learnAtk|a005|1</t>
   </si>
   <si>
     <t>longyouqianyingjue.png</t>
   </si>
   <si>
-    <t>i106</t>
+    <t>ma001</t>
   </si>
   <si>
     <t>下品灵石</t>
   </si>
   <si>
-    <t>货币</t>
+    <t>材料</t>
   </si>
   <si>
     <t>黯淡的灵石，散发着微弱的灵气。</t>
@@ -217,7 +218,7 @@
     <t>xiapinlingshi.png</t>
   </si>
   <si>
-    <t>i107</t>
+    <t>ma002</t>
   </si>
   <si>
     <t>中品灵石</t>
@@ -229,7 +230,7 @@
     <t>zhongpinlingshi.png</t>
   </si>
   <si>
-    <t>i108</t>
+    <t>ma003</t>
   </si>
   <si>
     <t>高品灵石</t>
@@ -241,7 +242,7 @@
     <t>gaopinlingshi.png</t>
   </si>
   <si>
-    <t>i109</t>
+    <t>ma004</t>
   </si>
   <si>
     <t>极品灵石</t>
@@ -251,6 +252,39 @@
   </si>
   <si>
     <t>jipinlingshi.png</t>
+  </si>
+  <si>
+    <t>eq001</t>
+  </si>
+  <si>
+    <t>冰影披风</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>使用可以装备上冰影披风。[技能]：冰影闪</t>
+  </si>
+  <si>
+    <t>changeEquip|eq001</t>
+  </si>
+  <si>
+    <t>bingyingpifeng.png</t>
+  </si>
+  <si>
+    <t>eq002</t>
+  </si>
+  <si>
+    <t>青影剑</t>
+  </si>
+  <si>
+    <t>使用可以装备上青影剑。</t>
+  </si>
+  <si>
+    <t>changeEquip|eq002</t>
+  </si>
+  <si>
+    <t>qingyingjian.png</t>
   </si>
 </sst>
 </file>
@@ -258,8 +292,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -272,6 +306,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -281,12 +397,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -294,29 +411,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,85 +450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -430,187 +464,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,17 +673,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,50 +693,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +720,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,138 +790,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1241,10 +1278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1553,6 +1590,52 @@
       </c>
       <c r="G13" s="1" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/仙人/config_dev/Items.xlsx
+++ b/仙人/config_dev/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22583" windowHeight="9720"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="180">
   <si>
     <t>sID</t>
   </si>
@@ -263,7 +263,7 @@
     <t>装备</t>
   </si>
   <si>
-    <t>使用可以装备上冰影披风。[技能]：冰影闪</t>
+    <t>查看对应装备</t>
   </si>
   <si>
     <t>changeEquip|eq001</t>
@@ -278,13 +278,310 @@
     <t>青影剑</t>
   </si>
   <si>
-    <t>使用可以装备上青影剑。</t>
-  </si>
-  <si>
     <t>changeEquip|eq002</t>
   </si>
   <si>
     <t>qingyingjian.png</t>
+  </si>
+  <si>
+    <t>eq003</t>
+  </si>
+  <si>
+    <t>修炼服</t>
+  </si>
+  <si>
+    <t>changeEquip|eq003</t>
+  </si>
+  <si>
+    <t>xiulianfu.png</t>
+  </si>
+  <si>
+    <t>eq004</t>
+  </si>
+  <si>
+    <t>蓝水吊坠</t>
+  </si>
+  <si>
+    <t>changeEquip|eq004</t>
+  </si>
+  <si>
+    <t>lanshuidiaozhui.png</t>
+  </si>
+  <si>
+    <t>eq005</t>
+  </si>
+  <si>
+    <t>烈火吊坠</t>
+  </si>
+  <si>
+    <t>changeEquip|eq005</t>
+  </si>
+  <si>
+    <t>liehuodiaozhui.png</t>
+  </si>
+  <si>
+    <t>eq006</t>
+  </si>
+  <si>
+    <t>冥土吊坠</t>
+  </si>
+  <si>
+    <t>changeEquip|eq006</t>
+  </si>
+  <si>
+    <t>mingtudiaozhui.png</t>
+  </si>
+  <si>
+    <t>eq007</t>
+  </si>
+  <si>
+    <t>试炼长刀</t>
+  </si>
+  <si>
+    <t>changeEquip|eq007</t>
+  </si>
+  <si>
+    <t>shilianchangdao.png</t>
+  </si>
+  <si>
+    <t>eq008</t>
+  </si>
+  <si>
+    <t>木灵戒指</t>
+  </si>
+  <si>
+    <t>changeEquip|eq008</t>
+  </si>
+  <si>
+    <t>mulingjiezhi.png</t>
+  </si>
+  <si>
+    <t>eq009</t>
+  </si>
+  <si>
+    <t>乾坤镜</t>
+  </si>
+  <si>
+    <t>changeEquip|eq009</t>
+  </si>
+  <si>
+    <t>qiankunjing.png</t>
+  </si>
+  <si>
+    <t>eq010</t>
+  </si>
+  <si>
+    <t>锁鬼木魄</t>
+  </si>
+  <si>
+    <t>changeEquip|eq010</t>
+  </si>
+  <si>
+    <t>suoguimupo.png</t>
+  </si>
+  <si>
+    <t>eq011</t>
+  </si>
+  <si>
+    <t>杀金令</t>
+  </si>
+  <si>
+    <t>changeEquip|eq011</t>
+  </si>
+  <si>
+    <t>shajinling.png</t>
+  </si>
+  <si>
+    <t>eq012</t>
+  </si>
+  <si>
+    <t>幽璃佩</t>
+  </si>
+  <si>
+    <t>changeEquip|eq012</t>
+  </si>
+  <si>
+    <t>youlipei.png</t>
+  </si>
+  <si>
+    <t>eq013</t>
+  </si>
+  <si>
+    <t>儒道令</t>
+  </si>
+  <si>
+    <t>changeEquip|eq013</t>
+  </si>
+  <si>
+    <t>rudaoling.png</t>
+  </si>
+  <si>
+    <t>eq014</t>
+  </si>
+  <si>
+    <t>石琴</t>
+  </si>
+  <si>
+    <t>changeEquip|eq014</t>
+  </si>
+  <si>
+    <t>shiqin.png</t>
+  </si>
+  <si>
+    <t>eq015</t>
+  </si>
+  <si>
+    <t>血蚀刀</t>
+  </si>
+  <si>
+    <t>changeEquip|eq015</t>
+  </si>
+  <si>
+    <t>xueshidao.png</t>
+  </si>
+  <si>
+    <t>eq016</t>
+  </si>
+  <si>
+    <t>环铁双剑</t>
+  </si>
+  <si>
+    <t>changeEquip|eq016</t>
+  </si>
+  <si>
+    <t>huantieshuangjian.png</t>
+  </si>
+  <si>
+    <t>eq017</t>
+  </si>
+  <si>
+    <t>九天戟</t>
+  </si>
+  <si>
+    <t>changeEquip|eq017</t>
+  </si>
+  <si>
+    <t>jiutianji.png</t>
+  </si>
+  <si>
+    <t>eq018</t>
+  </si>
+  <si>
+    <t>青峰刀</t>
+  </si>
+  <si>
+    <t>changeEquip|eq018</t>
+  </si>
+  <si>
+    <t>qingfengdao.png</t>
+  </si>
+  <si>
+    <t>eq019</t>
+  </si>
+  <si>
+    <t>匣里剑</t>
+  </si>
+  <si>
+    <t>changeEquip|eq019</t>
+  </si>
+  <si>
+    <t>xialijian.png</t>
+  </si>
+  <si>
+    <t>eq020</t>
+  </si>
+  <si>
+    <t>碧波戒指</t>
+  </si>
+  <si>
+    <t>changeEquip|eq020</t>
+  </si>
+  <si>
+    <t>bibojiezhi.png</t>
+  </si>
+  <si>
+    <t>eq021</t>
+  </si>
+  <si>
+    <t>锁龙吊坠</t>
+  </si>
+  <si>
+    <t>changeEquip|eq021</t>
+  </si>
+  <si>
+    <t>suolongdiaozhui.png</t>
+  </si>
+  <si>
+    <t>eq022</t>
+  </si>
+  <si>
+    <t>玉如意</t>
+  </si>
+  <si>
+    <t>changeEquip|eq022</t>
+  </si>
+  <si>
+    <t>yuruyi.png</t>
+  </si>
+  <si>
+    <t>eq023</t>
+  </si>
+  <si>
+    <t>邪眼</t>
+  </si>
+  <si>
+    <t>changeEquip|eq023</t>
+  </si>
+  <si>
+    <t>xieyan.png</t>
+  </si>
+  <si>
+    <t>eq024</t>
+  </si>
+  <si>
+    <t>修罗面具</t>
+  </si>
+  <si>
+    <t>changeEquip|eq024</t>
+  </si>
+  <si>
+    <t>xiuluomianju.png</t>
+  </si>
+  <si>
+    <t>eq025</t>
+  </si>
+  <si>
+    <t>岩息面具</t>
+  </si>
+  <si>
+    <t>changeEquip|eq025</t>
+  </si>
+  <si>
+    <t>yanximianju.png</t>
+  </si>
+  <si>
+    <t>eq026</t>
+  </si>
+  <si>
+    <t>斗士面具</t>
+  </si>
+  <si>
+    <t>changeEquip|eq026</t>
+  </si>
+  <si>
+    <t>doushimianju.png</t>
+  </si>
+  <si>
+    <t>eq027</t>
+  </si>
+  <si>
+    <t>试炼长剑</t>
+  </si>
+  <si>
+    <t>changeEquip|eq027</t>
+  </si>
+  <si>
+    <t>shilianchangjian.png</t>
   </si>
 </sst>
 </file>
@@ -292,8 +589,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -301,6 +598,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -321,44 +671,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,10 +701,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,14 +725,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,15 +733,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,29 +747,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -464,187 +761,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,9 +972,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,41 +1007,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,23 +1029,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,16 +1087,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,112 +1108,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,17 +1575,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="16.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="57.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="84.537037037037" customWidth="1"/>
     <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="28.3055555555556" customWidth="1"/>
   </cols>
@@ -1619,23 +1916,598 @@
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>80</v>
+      <c r="G19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/仙人/config_dev/Items.xlsx
+++ b/仙人/config_dev/Items.xlsx
@@ -603,56 +603,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,8 +625,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,22 +688,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,24 +701,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,9 +717,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,19 +761,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,163 +875,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,28 +970,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,16 +1010,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,8 +1027,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,23 +1044,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1075,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,141 +1087,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1578,7 +1575,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1939,7 +1936,7 @@
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1951,10 +1948,10 @@
       <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1962,7 +1959,7 @@
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1974,10 +1971,10 @@
       <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1985,7 +1982,7 @@
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1997,10 +1994,10 @@
       <c r="E18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2008,7 +2005,7 @@
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2020,10 +2017,10 @@
       <c r="E19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2031,7 +2028,7 @@
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2043,10 +2040,10 @@
       <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2054,7 +2051,7 @@
       <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2066,10 +2063,10 @@
       <c r="E21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2077,7 +2074,7 @@
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2089,10 +2086,10 @@
       <c r="E22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2100,7 +2097,7 @@
       <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2112,10 +2109,10 @@
       <c r="E23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2123,7 +2120,7 @@
       <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2135,10 +2132,10 @@
       <c r="E24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2146,7 +2143,7 @@
       <c r="A25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2158,10 +2155,10 @@
       <c r="E25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2169,7 +2166,7 @@
       <c r="A26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2181,10 +2178,10 @@
       <c r="E26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2192,7 +2189,7 @@
       <c r="A27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2204,10 +2201,10 @@
       <c r="E27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2215,7 +2212,7 @@
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2227,10 +2224,10 @@
       <c r="E28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2238,7 +2235,7 @@
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2250,10 +2247,10 @@
       <c r="E29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2261,7 +2258,7 @@
       <c r="A30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2273,10 +2270,10 @@
       <c r="E30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2284,7 +2281,7 @@
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2296,10 +2293,10 @@
       <c r="E31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2307,7 +2304,7 @@
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2319,10 +2316,10 @@
       <c r="E32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2330,7 +2327,7 @@
       <c r="A33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2342,10 +2339,10 @@
       <c r="E33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2353,7 +2350,7 @@
       <c r="A34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2365,10 +2362,10 @@
       <c r="E34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2376,7 +2373,7 @@
       <c r="A35" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2388,10 +2385,10 @@
       <c r="E35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2399,7 +2396,7 @@
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2411,10 +2408,10 @@
       <c r="E36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2422,7 +2419,7 @@
       <c r="A37" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2434,10 +2431,10 @@
       <c r="E37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2445,7 +2442,7 @@
       <c r="A38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2457,10 +2454,10 @@
       <c r="E38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2468,7 +2465,7 @@
       <c r="A39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2480,10 +2477,10 @@
       <c r="E39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2491,7 +2488,7 @@
       <c r="A40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2503,10 +2500,10 @@
       <c r="E40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>179</v>
       </c>
     </row>
